--- a/TEST/test_cuda_queue_old/E_20/Test_NOEXCH_E20.xlsx
+++ b/TEST/test_cuda_queue_old/E_20/Test_NOEXCH_E20.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\test_cuda_queue_no_exch\E_20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\test_cuda_queue_old\E_20\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -197,7 +197,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -297,22 +296,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20.297391513403053</c:v>
+                  <c:v>33.498601849860187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.332043664501864</c:v>
+                  <c:v>47.727551333129021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.362141105179628</c:v>
+                  <c:v>53.850276625172889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.910223732653638</c:v>
+                  <c:v>53.683212685280935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.682648735564975</c:v>
+                  <c:v>48.021893308664815</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.889926428975663</c:v>
+                  <c:v>50.481361426256079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -388,22 +387,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>23.719794499848895</c:v>
+                  <c:v>40.036977145321266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.365176765915905</c:v>
+                  <c:v>52.094683686351523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.731532323010473</c:v>
+                  <c:v>54.792416642077306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.929969397195929</c:v>
+                  <c:v>52.499717274526439</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.254118524040255</c:v>
+                  <c:v>54.711697112551569</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.264415728775877</c:v>
+                  <c:v>52.255944843112431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,22 +478,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.937471770551038</c:v>
+                  <c:v>38.655725823151791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.413811474045218</c:v>
+                  <c:v>48.904506156667537</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.461879669156882</c:v>
+                  <c:v>49.543759538185917</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.248253484753167</c:v>
+                  <c:v>49.474821097270073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.045340961399354</c:v>
+                  <c:v>49.188010540184457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.231800132362672</c:v>
+                  <c:v>48.643257328990224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,22 +569,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>23.087281611986871</c:v>
+                  <c:v>39.257585359053003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.130541358924653</c:v>
+                  <c:v>45.032304024191674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.471862957704726</c:v>
+                  <c:v>44.120189157621859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.279060768349691</c:v>
+                  <c:v>44.149116305587228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.150841429429242</c:v>
+                  <c:v>44.293056111651318</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.839944677487992</c:v>
+                  <c:v>43.572783029484583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,7 +656,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -733,7 +731,8 @@
         <c:axId val="636339040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="16"/>
+          <c:max val="56"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -777,7 +776,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -858,7 +856,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -971,7 +968,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1071,22 +1067,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.083686176836864</c:v>
+                  <c:v>18.672560275545351</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.289698978182823</c:v>
+                  <c:v>23.273898111047512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.345629029839557</c:v>
+                  <c:v>29.635204081632654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.357646705688129</c:v>
+                  <c:v>28.255385684503125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.667383292383294</c:v>
+                  <c:v>25.168368926029093</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.518312411026271</c:v>
+                  <c:v>20.203478260869563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,22 +1158,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.671021960495644</c:v>
+                  <c:v>24.610273033287619</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.745485545997054</c:v>
+                  <c:v>31.982987686325341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.320154601819793</c:v>
+                  <c:v>38.789349577520142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.82476235000779</c:v>
+                  <c:v>35.702477844094773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.14937495023489</c:v>
+                  <c:v>36.814434912346137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.099765904709445</c:v>
+                  <c:v>25.220263191516541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,22 +1249,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.595868191907119</c:v>
+                  <c:v>30.998373877975808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.329855118995063</c:v>
+                  <c:v>40.483265375467212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.917360777986129</c:v>
+                  <c:v>46.471867381764994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.916492237920806</c:v>
+                  <c:v>46.644709797396501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.663538123735307</c:v>
+                  <c:v>44.752465020189689</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.977226614426641</c:v>
+                  <c:v>30.92194393978718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,22 +1340,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18.504486033715349</c:v>
+                  <c:v>32.439298015417421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.860162298679253</c:v>
+                  <c:v>41.366686187567979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.970503143285985</c:v>
+                  <c:v>47.366222818277613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.919649252273569</c:v>
+                  <c:v>47.167413908232376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.005533648504393</c:v>
+                  <c:v>45.618230464064951</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.058204591394745</c:v>
+                  <c:v>32.202676739718001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,7 +1427,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1507,8 +1502,8 @@
         <c:axId val="756323168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="24"/>
-          <c:min val="8"/>
+          <c:max val="50"/>
+          <c:min val="18"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1552,7 +1547,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1633,7 +1627,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3752,8 +3745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56:D61"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3811,14 +3804,14 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>1.6885399999999999</v>
+        <v>1.55735</v>
       </c>
       <c r="E4">
-        <v>8.319E-2</v>
+        <v>4.6489999999999997E-2</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F9" si="0">D4/E4</f>
-        <v>20.297391513403053</v>
+        <v>33.498601849860187</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3832,14 +3825,14 @@
         <v>64</v>
       </c>
       <c r="D5">
-        <v>1.6885399999999999</v>
+        <v>1.55735</v>
       </c>
       <c r="E5">
-        <v>7.2370000000000004E-2</v>
+        <v>3.2629999999999999E-2</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>23.332043664501864</v>
+        <v>47.727551333129021</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3853,14 +3846,14 @@
         <v>128</v>
       </c>
       <c r="D6">
-        <v>1.6885399999999999</v>
+        <v>1.55735</v>
       </c>
       <c r="E6">
-        <v>6.9309999999999997E-2</v>
+        <v>2.8920000000000001E-2</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>24.362141105179628</v>
+        <v>53.850276625172889</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3874,14 +3867,14 @@
         <v>256</v>
       </c>
       <c r="D7">
-        <v>1.6885399999999999</v>
+        <v>1.55735</v>
       </c>
       <c r="E7">
-        <v>7.0620000000000002E-2</v>
+        <v>2.9010000000000001E-2</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>23.910223732653638</v>
+        <v>53.683212685280935</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -3898,14 +3891,14 @@
         <v>512</v>
       </c>
       <c r="D8">
-        <v>1.6885399999999999</v>
+        <v>1.55735</v>
       </c>
       <c r="E8">
-        <v>6.8409999999999999E-2</v>
+        <v>3.243E-2</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>24.682648735564975</v>
+        <v>48.021893308664815</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3919,14 +3912,14 @@
         <v>1024</v>
       </c>
       <c r="D9">
-        <v>1.6885399999999999</v>
+        <v>1.55735</v>
       </c>
       <c r="E9">
-        <v>7.0680000000000007E-2</v>
+        <v>3.0849999999999999E-2</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>23.889926428975663</v>
+        <v>50.481361426256079</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3943,14 +3936,14 @@
         <v>32</v>
       </c>
       <c r="D11">
-        <v>3.9244400000000002</v>
+        <v>3.7138300000000002</v>
       </c>
       <c r="E11">
-        <v>0.16545000000000001</v>
+        <v>9.2759999999999995E-2</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F16" si="1">D11/E11</f>
-        <v>23.719794499848895</v>
+        <v>40.036977145321266</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3964,14 +3957,14 @@
         <v>64</v>
       </c>
       <c r="D12">
-        <v>3.9244400000000002</v>
+        <v>3.7138300000000002</v>
       </c>
       <c r="E12">
-        <v>0.14341000000000001</v>
+        <v>7.1290000000000006E-2</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>27.365176765915905</v>
+        <v>52.094683686351523</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3985,14 +3978,14 @@
         <v>128</v>
       </c>
       <c r="D13">
-        <v>3.9244400000000002</v>
+        <v>3.7138300000000002</v>
       </c>
       <c r="E13">
-        <v>0.13658999999999999</v>
+        <v>6.7780000000000007E-2</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>28.731532323010473</v>
+        <v>54.792416642077306</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4006,14 +3999,14 @@
         <v>256</v>
       </c>
       <c r="D14">
-        <v>3.9244400000000002</v>
+        <v>3.7138300000000002</v>
       </c>
       <c r="E14">
-        <v>0.14051</v>
+        <v>7.0739999999999997E-2</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>27.929969397195929</v>
+        <v>52.499717274526439</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>7</v>
@@ -4030,14 +4023,14 @@
         <v>512</v>
       </c>
       <c r="D15">
-        <v>3.9244400000000002</v>
+        <v>3.7138300000000002</v>
       </c>
       <c r="E15">
-        <v>0.13414999999999999</v>
+        <v>6.7879999999999996E-2</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>29.254118524040255</v>
+        <v>54.711697112551569</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4051,14 +4044,14 @@
         <v>1024</v>
       </c>
       <c r="D16">
-        <v>3.9244400000000002</v>
+        <v>3.7138300000000002</v>
       </c>
       <c r="E16">
-        <v>0.14394000000000001</v>
+        <v>7.1069999999999994E-2</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>27.264415728775877</v>
+        <v>52.255944843112431</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4075,14 +4068,14 @@
         <v>32</v>
       </c>
       <c r="D18">
-        <v>8.83385</v>
+        <v>7.4667399999999997</v>
       </c>
       <c r="E18">
-        <v>0.35424</v>
+        <v>0.19316</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ref="F18:F23" si="2">D18/E18</f>
-        <v>24.937471770551038</v>
+        <v>38.655725823151791</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4096,14 +4089,14 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>8.83385</v>
+        <v>7.4667399999999997</v>
       </c>
       <c r="E19">
-        <v>0.30032999999999999</v>
+        <v>0.15268000000000001</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>29.413811474045218</v>
+        <v>48.904506156667537</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4117,14 +4110,14 @@
         <v>128</v>
       </c>
       <c r="D20">
-        <v>8.83385</v>
+        <v>7.4667399999999997</v>
       </c>
       <c r="E20">
-        <v>0.29984</v>
+        <v>0.15071000000000001</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
-        <v>29.461879669156882</v>
+        <v>49.543759538185917</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4138,14 +4131,14 @@
         <v>256</v>
       </c>
       <c r="D21">
-        <v>8.83385</v>
+        <v>7.4667399999999997</v>
       </c>
       <c r="E21">
-        <v>0.30203000000000002</v>
+        <v>0.15092</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
-        <v>29.248253484753167</v>
+        <v>49.474821097270073</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>7</v>
@@ -4162,14 +4155,14 @@
         <v>512</v>
       </c>
       <c r="D22">
-        <v>8.83385</v>
+        <v>7.4667399999999997</v>
       </c>
       <c r="E22">
-        <v>0.30414000000000002</v>
+        <v>0.15179999999999999</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="2"/>
-        <v>29.045340961399354</v>
+        <v>49.188010540184457</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4183,14 +4176,14 @@
         <v>1024</v>
       </c>
       <c r="D23">
-        <v>8.83385</v>
+        <v>7.4667399999999997</v>
       </c>
       <c r="E23">
-        <v>0.30220000000000002</v>
+        <v>0.1535</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="2"/>
-        <v>29.231800132362672</v>
+        <v>48.643257328990224</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4207,14 +4200,14 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>15.68573</v>
+        <v>15.48751</v>
       </c>
       <c r="E25">
-        <v>0.67940999999999996</v>
+        <v>0.39451000000000003</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ref="F25:F30" si="3">D25/E25</f>
-        <v>23.087281611986871</v>
+        <v>39.257585359053003</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4228,14 +4221,14 @@
         <v>64</v>
       </c>
       <c r="D26">
-        <v>15.68573</v>
+        <v>15.48751</v>
       </c>
       <c r="E26">
-        <v>0.62417</v>
+        <v>0.34392</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="3"/>
-        <v>25.130541358924653</v>
+        <v>45.032304024191674</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4249,14 +4242,14 @@
         <v>128</v>
       </c>
       <c r="D27">
-        <v>15.68573</v>
+        <v>15.48751</v>
       </c>
       <c r="E27">
-        <v>0.64097000000000004</v>
+        <v>0.35103000000000001</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="3"/>
-        <v>24.471862957704726</v>
+        <v>44.120189157621859</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4270,14 +4263,14 @@
         <v>256</v>
       </c>
       <c r="D28">
-        <v>15.68573</v>
+        <v>15.48751</v>
       </c>
       <c r="E28">
-        <v>0.64605999999999997</v>
+        <v>0.3508</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="3"/>
-        <v>24.279060768349691</v>
+        <v>44.149116305587228</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>7</v>
@@ -4294,14 +4287,14 @@
         <v>512</v>
       </c>
       <c r="D29">
-        <v>15.68573</v>
+        <v>15.48751</v>
       </c>
       <c r="E29">
-        <v>0.64949000000000001</v>
+        <v>0.34966000000000003</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="3"/>
-        <v>24.150841429429242</v>
+        <v>44.293056111651318</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4315,14 +4308,14 @@
         <v>1024</v>
       </c>
       <c r="D30">
-        <v>15.68573</v>
+        <v>15.48751</v>
       </c>
       <c r="E30">
-        <v>0.65795999999999999</v>
+        <v>0.35543999999999998</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="3"/>
-        <v>23.839944677487992</v>
+        <v>43.572783029484583</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -4377,14 +4370,14 @@
         <v>32</v>
       </c>
       <c r="D35">
-        <v>0.89002000000000003</v>
+        <v>0.81318999999999997</v>
       </c>
       <c r="E35">
-        <v>8.0299999999999996E-2</v>
+        <v>4.3549999999999998E-2</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" ref="F35:F40" si="4">D35/E35</f>
-        <v>11.083686176836864</v>
+        <v>18.672560275545351</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -4398,14 +4391,14 @@
         <v>64</v>
       </c>
       <c r="D36">
-        <v>0.89002000000000003</v>
+        <v>0.81318999999999997</v>
       </c>
       <c r="E36">
-        <v>7.2419999999999998E-2</v>
+        <v>3.4939999999999999E-2</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="4"/>
-        <v>12.289698978182823</v>
+        <v>23.273898111047512</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -4419,14 +4412,14 @@
         <v>128</v>
       </c>
       <c r="D37">
-        <v>0.89002000000000003</v>
+        <v>0.81318999999999997</v>
       </c>
       <c r="E37">
-        <v>6.6689999999999999E-2</v>
+        <v>2.7439999999999999E-2</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="4"/>
-        <v>13.345629029839557</v>
+        <v>29.635204081632654</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -4440,14 +4433,14 @@
         <v>256</v>
       </c>
       <c r="D38">
-        <v>0.89002000000000003</v>
+        <v>0.81318999999999997</v>
       </c>
       <c r="E38">
-        <v>6.6629999999999995E-2</v>
+        <v>2.878E-2</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="4"/>
-        <v>13.357646705688129</v>
+        <v>28.255385684503125</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>7</v>
@@ -4464,14 +4457,14 @@
         <v>512</v>
       </c>
       <c r="D39">
-        <v>0.89002000000000003</v>
+        <v>0.81318999999999997</v>
       </c>
       <c r="E39">
-        <v>6.5119999999999997E-2</v>
+        <v>3.2309999999999998E-2</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="4"/>
-        <v>13.667383292383294</v>
+        <v>25.168368926029093</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -4485,14 +4478,14 @@
         <v>1024</v>
       </c>
       <c r="D40">
-        <v>0.89002000000000003</v>
+        <v>0.81318999999999997</v>
       </c>
       <c r="E40">
-        <v>7.7270000000000005E-2</v>
+        <v>4.0250000000000001E-2</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="4"/>
-        <v>11.518312411026271</v>
+        <v>20.203478260869563</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -4509,14 +4502,14 @@
         <v>32</v>
       </c>
       <c r="D42">
-        <v>1.9026099999999999</v>
+        <v>1.9739899999999999</v>
       </c>
       <c r="E42">
-        <v>0.16302</v>
+        <v>8.0210000000000004E-2</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" ref="F42:F47" si="5">D42/E42</f>
-        <v>11.671021960495644</v>
+        <v>24.610273033287619</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4530,14 +4523,14 @@
         <v>64</v>
       </c>
       <c r="D43">
-        <v>1.9026099999999999</v>
+        <v>1.9739899999999999</v>
       </c>
       <c r="E43">
-        <v>0.12903000000000001</v>
+        <v>6.1719999999999997E-2</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="5"/>
-        <v>14.745485545997054</v>
+        <v>31.982987686325341</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4551,14 +4544,14 @@
         <v>128</v>
       </c>
       <c r="D44">
-        <v>1.9026099999999999</v>
+        <v>1.9739899999999999</v>
       </c>
       <c r="E44">
-        <v>0.12418999999999999</v>
+        <v>5.0889999999999998E-2</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="5"/>
-        <v>15.320154601819793</v>
+        <v>38.789349577520142</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4572,14 +4565,14 @@
         <v>256</v>
       </c>
       <c r="D45">
-        <v>1.9026099999999999</v>
+        <v>1.9739899999999999</v>
       </c>
       <c r="E45">
-        <v>0.12834000000000001</v>
+        <v>5.5289999999999999E-2</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="5"/>
-        <v>14.82476235000779</v>
+        <v>35.702477844094773</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>7</v>
@@ -4596,14 +4589,14 @@
         <v>512</v>
       </c>
       <c r="D46">
-        <v>1.9026099999999999</v>
+        <v>1.9739899999999999</v>
       </c>
       <c r="E46">
-        <v>0.12559000000000001</v>
+        <v>5.3620000000000001E-2</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="5"/>
-        <v>15.14937495023489</v>
+        <v>36.814434912346137</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4617,14 +4610,14 @@
         <v>1024</v>
       </c>
       <c r="D47">
-        <v>1.9026099999999999</v>
+        <v>1.9739899999999999</v>
       </c>
       <c r="E47">
-        <v>0.14524000000000001</v>
+        <v>7.8270000000000006E-2</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="5"/>
-        <v>13.099765904709445</v>
+        <v>25.220263191516541</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -4641,14 +4634,14 @@
         <v>32</v>
       </c>
       <c r="D49">
-        <v>4.5672499999999996</v>
+        <v>4.7656900000000002</v>
       </c>
       <c r="E49">
-        <v>0.29285</v>
+        <v>0.15373999999999999</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" ref="F49:F54" si="6">D49/E49</f>
-        <v>15.595868191907119</v>
+        <v>30.998373877975808</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -4662,14 +4655,14 @@
         <v>64</v>
       </c>
       <c r="D50">
-        <v>4.5672499999999996</v>
+        <v>4.7656900000000002</v>
       </c>
       <c r="E50">
-        <v>0.24917</v>
+        <v>0.11772000000000001</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="6"/>
-        <v>18.329855118995063</v>
+        <v>40.483265375467212</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -4683,14 +4676,14 @@
         <v>128</v>
       </c>
       <c r="D51">
-        <v>4.5672499999999996</v>
+        <v>4.7656900000000002</v>
       </c>
       <c r="E51">
-        <v>0.22931000000000001</v>
+        <v>0.10255</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="6"/>
-        <v>19.917360777986129</v>
+        <v>46.471867381764994</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -4704,14 +4697,14 @@
         <v>256</v>
       </c>
       <c r="D52">
-        <v>4.5672499999999996</v>
+        <v>4.7656900000000002</v>
       </c>
       <c r="E52">
-        <v>0.22932</v>
+        <v>0.10217</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" si="6"/>
-        <v>19.916492237920806</v>
+        <v>46.644709797396501</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>7</v>
@@ -4728,14 +4721,14 @@
         <v>512</v>
       </c>
       <c r="D53">
-        <v>4.5672499999999996</v>
+        <v>4.7656900000000002</v>
       </c>
       <c r="E53">
-        <v>0.23227</v>
+        <v>0.10649</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" si="6"/>
-        <v>19.663538123735307</v>
+        <v>44.752465020189689</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -4749,14 +4742,14 @@
         <v>1024</v>
       </c>
       <c r="D54">
-        <v>4.5672499999999996</v>
+        <v>4.7656900000000002</v>
       </c>
       <c r="E54">
-        <v>0.28586</v>
+        <v>0.15412000000000001</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="6"/>
-        <v>15.977226614426641</v>
+        <v>30.92194393978718</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -4773,14 +4766,14 @@
         <v>32</v>
       </c>
       <c r="D56">
-        <v>10.55977</v>
+        <v>9.8891200000000001</v>
       </c>
       <c r="E56">
-        <v>0.57065999999999995</v>
+        <v>0.30485000000000001</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" ref="F56:F61" si="7">D56/E56</f>
-        <v>18.504486033715349</v>
+        <v>32.439298015417421</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -4794,14 +4787,14 @@
         <v>64</v>
       </c>
       <c r="D57">
-        <v>10.55977</v>
+        <v>9.8891200000000001</v>
       </c>
       <c r="E57">
-        <v>0.48305999999999999</v>
+        <v>0.23905999999999999</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="7"/>
-        <v>21.860162298679253</v>
+        <v>41.366686187567979</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -4815,14 +4808,14 @@
         <v>128</v>
       </c>
       <c r="D58">
-        <v>10.55977</v>
+        <v>9.8891200000000001</v>
       </c>
       <c r="E58">
-        <v>0.45971000000000001</v>
+        <v>0.20877999999999999</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="7"/>
-        <v>22.970503143285985</v>
+        <v>47.366222818277613</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -4836,14 +4829,14 @@
         <v>256</v>
       </c>
       <c r="D59">
-        <v>10.55977</v>
+        <v>9.8891200000000001</v>
       </c>
       <c r="E59">
-        <v>0.46072999999999997</v>
+        <v>0.20966000000000001</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" si="7"/>
-        <v>22.919649252273569</v>
+        <v>47.167413908232376</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>7</v>
@@ -4860,14 +4853,14 @@
         <v>512</v>
       </c>
       <c r="D60">
-        <v>10.55977</v>
+        <v>9.8891200000000001</v>
       </c>
       <c r="E60">
-        <v>0.45900999999999997</v>
+        <v>0.21678</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="7"/>
-        <v>23.005533648504393</v>
+        <v>45.618230464064951</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -4881,14 +4874,14 @@
         <v>1024</v>
       </c>
       <c r="D61">
-        <v>10.55977</v>
+        <v>9.8891200000000001</v>
       </c>
       <c r="E61">
-        <v>0.55408000000000002</v>
+        <v>0.30708999999999997</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="7"/>
-        <v>19.058204591394745</v>
+        <v>32.202676739718001</v>
       </c>
     </row>
   </sheetData>
